--- a/data/pca/factorExposure/factorExposure_2017-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.005528388564340713</v>
+        <v>-0.01138642227599073</v>
       </c>
       <c r="C2">
-        <v>0.003749968252733871</v>
+        <v>0.03891815958490716</v>
       </c>
       <c r="D2">
-        <v>-0.04054105013396522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03198963643705351</v>
+      </c>
+      <c r="E2">
+        <v>0.05400942459694622</v>
+      </c>
+      <c r="F2">
+        <v>0.008389714976081188</v>
+      </c>
+      <c r="G2">
+        <v>0.1060489309336364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05007025410332112</v>
+        <v>-0.03858603819679499</v>
       </c>
       <c r="C3">
-        <v>-0.05929531908800337</v>
+        <v>0.09288103789000991</v>
       </c>
       <c r="D3">
-        <v>-0.09902809666709518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01881525944931096</v>
+      </c>
+      <c r="E3">
+        <v>0.1047311837223882</v>
+      </c>
+      <c r="F3">
+        <v>0.01933425166081072</v>
+      </c>
+      <c r="G3">
+        <v>0.1343995559663237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04645319161222598</v>
+        <v>-0.05541630101520579</v>
       </c>
       <c r="C4">
-        <v>-0.02299716209348677</v>
+        <v>0.06366699351752435</v>
       </c>
       <c r="D4">
-        <v>-0.06507486377625814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02624749645704994</v>
+      </c>
+      <c r="E4">
+        <v>0.04822737125363216</v>
+      </c>
+      <c r="F4">
+        <v>0.003946538951215439</v>
+      </c>
+      <c r="G4">
+        <v>0.100114015041164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01534192126761315</v>
+        <v>-0.03243825920234685</v>
       </c>
       <c r="C6">
-        <v>-0.01820883282322337</v>
+        <v>0.04640170266650956</v>
       </c>
       <c r="D6">
-        <v>-0.05372889600716675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01889632126925768</v>
+      </c>
+      <c r="E6">
+        <v>0.05412892315813669</v>
+      </c>
+      <c r="F6">
+        <v>0.004425355061769851</v>
+      </c>
+      <c r="G6">
+        <v>0.08422580289422013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008613902265518933</v>
+        <v>-0.02040227938297196</v>
       </c>
       <c r="C7">
-        <v>-0.009365087721214619</v>
+        <v>0.03559595230994499</v>
       </c>
       <c r="D7">
-        <v>-0.03634102471312337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01523481336262309</v>
+      </c>
+      <c r="E7">
+        <v>0.02391595377046124</v>
+      </c>
+      <c r="F7">
+        <v>-0.00378479913579325</v>
+      </c>
+      <c r="G7">
+        <v>0.1258778116588259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000193824457778373</v>
+        <v>-0.003729767460799132</v>
       </c>
       <c r="C8">
-        <v>8.470503790279052e-05</v>
+        <v>0.0197264164619465</v>
       </c>
       <c r="D8">
-        <v>-0.001051857648604813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004434565179933991</v>
+      </c>
+      <c r="E8">
+        <v>0.03650678982269016</v>
+      </c>
+      <c r="F8">
+        <v>0.001871399385307505</v>
+      </c>
+      <c r="G8">
+        <v>0.06900664413090082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01941856296551984</v>
+        <v>-0.03306523628447476</v>
       </c>
       <c r="C9">
-        <v>-0.01329490699875686</v>
+        <v>0.04544182416505861</v>
       </c>
       <c r="D9">
-        <v>-0.04263352993748194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01719568310101322</v>
+      </c>
+      <c r="E9">
+        <v>0.03386746789795009</v>
+      </c>
+      <c r="F9">
+        <v>-0.0002493064504572344</v>
+      </c>
+      <c r="G9">
+        <v>0.1007543783426074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1210034263339628</v>
+        <v>-0.09563575591112437</v>
       </c>
       <c r="C10">
-        <v>0.06346927668871828</v>
+        <v>-0.1905027229577944</v>
       </c>
       <c r="D10">
-        <v>0.1657007596573812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01549775995427635</v>
+      </c>
+      <c r="E10">
+        <v>0.01861713543649728</v>
+      </c>
+      <c r="F10">
+        <v>0.02098372861988783</v>
+      </c>
+      <c r="G10">
+        <v>0.05290782123442845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02476154329339159</v>
+        <v>-0.03674512370871323</v>
       </c>
       <c r="C11">
-        <v>-0.03191870174759559</v>
+        <v>0.05244090290109333</v>
       </c>
       <c r="D11">
-        <v>-0.04564671109836563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002858799324302038</v>
+      </c>
+      <c r="E11">
+        <v>0.02428746362524838</v>
+      </c>
+      <c r="F11">
+        <v>-0.0145003325611539</v>
+      </c>
+      <c r="G11">
+        <v>0.08070780194731057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02380742531214362</v>
+        <v>-0.0386751477216911</v>
       </c>
       <c r="C12">
-        <v>-0.02307249317979369</v>
+        <v>0.04664040443674166</v>
       </c>
       <c r="D12">
-        <v>-0.04102135572988212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00680967695928486</v>
+      </c>
+      <c r="E12">
+        <v>0.01328329058506634</v>
+      </c>
+      <c r="F12">
+        <v>-0.002024336576803179</v>
+      </c>
+      <c r="G12">
+        <v>0.07670445105748259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.006135673898795103</v>
+        <v>-0.01139460930681927</v>
       </c>
       <c r="C13">
-        <v>0.00229069367017499</v>
+        <v>0.0341389585636097</v>
       </c>
       <c r="D13">
-        <v>-0.03748340806093542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02903169962804653</v>
+      </c>
+      <c r="E13">
+        <v>0.05852822843809755</v>
+      </c>
+      <c r="F13">
+        <v>0.01427732141680735</v>
+      </c>
+      <c r="G13">
+        <v>0.1412841809677226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001576869527659649</v>
+        <v>-0.008958415137114451</v>
       </c>
       <c r="C14">
-        <v>-0.005264813499064366</v>
+        <v>0.02500204886974894</v>
       </c>
       <c r="D14">
-        <v>-0.02323735301733095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01131125517932457</v>
+      </c>
+      <c r="E14">
+        <v>0.01902576166738746</v>
+      </c>
+      <c r="F14">
+        <v>0.005336594539962358</v>
+      </c>
+      <c r="G14">
+        <v>0.1153437019288584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02077131864056172</v>
+        <v>-0.035050805409611</v>
       </c>
       <c r="C16">
-        <v>-0.02212163239684094</v>
+        <v>0.04512730648101859</v>
       </c>
       <c r="D16">
-        <v>-0.03055021461935525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002362868485142006</v>
+      </c>
+      <c r="E16">
+        <v>0.01952739982000221</v>
+      </c>
+      <c r="F16">
+        <v>0.005099223988499997</v>
+      </c>
+      <c r="G16">
+        <v>0.0845512156178701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01775986991861403</v>
+        <v>-0.01800325806728082</v>
       </c>
       <c r="C19">
-        <v>-0.0171388722560147</v>
+        <v>0.04570415315195617</v>
       </c>
       <c r="D19">
-        <v>-0.04792908679068418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02211553350996582</v>
+      </c>
+      <c r="E19">
+        <v>0.09604742884601487</v>
+      </c>
+      <c r="F19">
+        <v>0.008340851705257574</v>
+      </c>
+      <c r="G19">
+        <v>0.1353948340577814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.00435655136602755</v>
+        <v>-0.01455004899061421</v>
       </c>
       <c r="C20">
-        <v>-0.009044973287647765</v>
+        <v>0.03705414396351828</v>
       </c>
       <c r="D20">
-        <v>-0.03523953481818549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01570409711491316</v>
+      </c>
+      <c r="E20">
+        <v>0.04598754160754594</v>
+      </c>
+      <c r="F20">
+        <v>0.02453156591860227</v>
+      </c>
+      <c r="G20">
+        <v>0.1114083375612717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001847308676896694</v>
+        <v>-0.006635014012914998</v>
       </c>
       <c r="C21">
-        <v>-0.001671961181921056</v>
+        <v>0.02981999375747262</v>
       </c>
       <c r="D21">
-        <v>-0.03055651256122102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02142002673611633</v>
+      </c>
+      <c r="E21">
+        <v>0.06355089688870845</v>
+      </c>
+      <c r="F21">
+        <v>0.01215382311936163</v>
+      </c>
+      <c r="G21">
+        <v>0.1516406693538216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001059090267520996</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.005517976695317282</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002482469414282539</v>
+      </c>
+      <c r="E22">
+        <v>0.01912755909379042</v>
+      </c>
+      <c r="F22">
+        <v>-0.00380712370273742</v>
+      </c>
+      <c r="G22">
+        <v>0.003831405964199313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001034867216673796</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.005427521163652468</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002468612241706911</v>
+      </c>
+      <c r="E23">
+        <v>0.0190502400629777</v>
+      </c>
+      <c r="F23">
+        <v>-0.003554495238959093</v>
+      </c>
+      <c r="G23">
+        <v>0.003692838392827374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01510227482796115</v>
+        <v>-0.03058410556392215</v>
       </c>
       <c r="C24">
-        <v>-0.02080761132026032</v>
+        <v>0.04919607084994281</v>
       </c>
       <c r="D24">
-        <v>-0.03970208008773052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007499861290461469</v>
+      </c>
+      <c r="E24">
+        <v>0.01883526553180266</v>
+      </c>
+      <c r="F24">
+        <v>-0.005556391879818545</v>
+      </c>
+      <c r="G24">
+        <v>0.08347072304061366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03287850887244682</v>
+        <v>-0.04377947679119285</v>
       </c>
       <c r="C25">
-        <v>-0.02605059860930531</v>
+        <v>0.05657597419080135</v>
       </c>
       <c r="D25">
-        <v>-0.05208864820057966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01159461762292044</v>
+      </c>
+      <c r="E25">
+        <v>0.01142855927562637</v>
+      </c>
+      <c r="F25">
+        <v>-0.004861623873646436</v>
+      </c>
+      <c r="G25">
+        <v>0.09170777720611048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.002934839976571429</v>
+        <v>-0.0144960862001572</v>
       </c>
       <c r="C26">
-        <v>0.01704133155750601</v>
+        <v>0.008715670488815018</v>
       </c>
       <c r="D26">
-        <v>-0.01373865244069964</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0244587454875615</v>
+      </c>
+      <c r="E26">
+        <v>0.0150283662476579</v>
+      </c>
+      <c r="F26">
+        <v>0.005635065593735156</v>
+      </c>
+      <c r="G26">
+        <v>0.08464738408844946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1516472585709905</v>
+        <v>-0.1266846491836761</v>
       </c>
       <c r="C28">
-        <v>0.08206558588283636</v>
+        <v>-0.2445308223652033</v>
       </c>
       <c r="D28">
-        <v>0.1829782897516255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00720735066202613</v>
+      </c>
+      <c r="E28">
+        <v>-0.002918532220363564</v>
+      </c>
+      <c r="F28">
+        <v>0.02104021857525081</v>
+      </c>
+      <c r="G28">
+        <v>0.04468115103331843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007144238864400837</v>
+        <v>-0.007998710965535527</v>
       </c>
       <c r="C29">
-        <v>-0.004572855127830039</v>
+        <v>0.02100426816748768</v>
       </c>
       <c r="D29">
-        <v>-0.01906722956233154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01018597538184597</v>
+      </c>
+      <c r="E29">
+        <v>0.01176692047400424</v>
+      </c>
+      <c r="F29">
+        <v>0.00992838934598615</v>
+      </c>
+      <c r="G29">
+        <v>0.105599747972549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02470188900470762</v>
+        <v>-0.03899873490671695</v>
       </c>
       <c r="C30">
-        <v>-0.02485621928360731</v>
+        <v>0.06311308601014441</v>
       </c>
       <c r="D30">
-        <v>-0.08067175593813354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03109416136153584</v>
+      </c>
+      <c r="E30">
+        <v>0.07614521090651499</v>
+      </c>
+      <c r="F30">
+        <v>-0.01868128181016905</v>
+      </c>
+      <c r="G30">
+        <v>0.1222810801313322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02891006380292399</v>
+        <v>-0.05321766150360283</v>
       </c>
       <c r="C31">
-        <v>-0.009835963508252272</v>
+        <v>0.03714811789962631</v>
       </c>
       <c r="D31">
-        <v>-0.01474695821514347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004076642917481302</v>
+      </c>
+      <c r="E31">
+        <v>0.000289488409627187</v>
+      </c>
+      <c r="F31">
+        <v>0.03453969206003802</v>
+      </c>
+      <c r="G31">
+        <v>0.09728382070749989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00145041825758746</v>
+        <v>-0.001446771855090649</v>
       </c>
       <c r="C32">
-        <v>-0.02009370647301529</v>
+        <v>0.01814912290529664</v>
       </c>
       <c r="D32">
-        <v>-0.01941487047857196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001426279121593298</v>
+      </c>
+      <c r="E32">
+        <v>0.05123080795202727</v>
+      </c>
+      <c r="F32">
+        <v>-0.02729710052352331</v>
+      </c>
+      <c r="G32">
+        <v>0.07420272379547369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01830691027215959</v>
+        <v>-0.02677335290739821</v>
       </c>
       <c r="C33">
-        <v>-0.02091151262540033</v>
+        <v>0.04616657669642817</v>
       </c>
       <c r="D33">
-        <v>-0.05075926358418047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01779863275313185</v>
+      </c>
+      <c r="E33">
+        <v>0.06403316689827548</v>
+      </c>
+      <c r="F33">
+        <v>-0.005685345382627984</v>
+      </c>
+      <c r="G33">
+        <v>0.1576714930325183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03728968668689391</v>
+        <v>-0.04303557227916995</v>
       </c>
       <c r="C34">
-        <v>-0.04121804994432119</v>
+        <v>0.05997525491362628</v>
       </c>
       <c r="D34">
-        <v>-0.04393016037668085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004172917883553541</v>
+      </c>
+      <c r="E34">
+        <v>0.01614727871353195</v>
+      </c>
+      <c r="F34">
+        <v>-0.01784596311475997</v>
+      </c>
+      <c r="G34">
+        <v>0.08281261694186477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008413204896248996</v>
+        <v>-0.01529928544280073</v>
       </c>
       <c r="C36">
-        <v>0.008537673261157012</v>
+        <v>0.005377520871871307</v>
       </c>
       <c r="D36">
-        <v>-0.003884675814215069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0133753692639182</v>
+      </c>
+      <c r="E36">
+        <v>0.01780305543861936</v>
+      </c>
+      <c r="F36">
+        <v>0.007001699472406767</v>
+      </c>
+      <c r="G36">
+        <v>0.09736291191345793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02522921674814538</v>
+        <v>-0.03050668577057731</v>
       </c>
       <c r="C38">
-        <v>-0.02198630268782875</v>
+        <v>0.02247295504006017</v>
       </c>
       <c r="D38">
-        <v>-0.01262159807866851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006829649722505743</v>
+      </c>
+      <c r="E38">
+        <v>0.0151765553760331</v>
+      </c>
+      <c r="F38">
+        <v>0.01461731971953092</v>
+      </c>
+      <c r="G38">
+        <v>0.09257461247940718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01525499287858667</v>
+        <v>-0.03708556256792876</v>
       </c>
       <c r="C39">
-        <v>-0.03958981319694442</v>
+        <v>0.07626561065679192</v>
       </c>
       <c r="D39">
-        <v>-0.07887511926563111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01281410232442752</v>
+      </c>
+      <c r="E39">
+        <v>0.03604032910585924</v>
+      </c>
+      <c r="F39">
+        <v>-0.01437828552780312</v>
+      </c>
+      <c r="G39">
+        <v>0.09296594289057201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01505381118269435</v>
+        <v>-0.01301271632637115</v>
       </c>
       <c r="C40">
-        <v>-0.004141504619218964</v>
+        <v>0.03299510172008568</v>
       </c>
       <c r="D40">
-        <v>-0.02216038786711172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01573188748029755</v>
+      </c>
+      <c r="E40">
+        <v>0.03947265584028432</v>
+      </c>
+      <c r="F40">
+        <v>0.01653079541807538</v>
+      </c>
+      <c r="G40">
+        <v>0.11707733542068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01087581728473379</v>
+        <v>-0.01950820455567446</v>
       </c>
       <c r="C41">
-        <v>0.004912475377658314</v>
+        <v>-0.001477931855330658</v>
       </c>
       <c r="D41">
-        <v>0.005313082524533681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005378452792140124</v>
+      </c>
+      <c r="E41">
+        <v>0.01393816355847425</v>
+      </c>
+      <c r="F41">
+        <v>0.0142412609597571</v>
+      </c>
+      <c r="G41">
+        <v>0.09176961887771302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006581315461543193</v>
+        <v>-0.00504711170331845</v>
       </c>
       <c r="C42">
-        <v>0.0448268880319181</v>
+        <v>0.02864669533639451</v>
       </c>
       <c r="D42">
-        <v>-0.09752528733652775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08443840818426687</v>
+      </c>
+      <c r="E42">
+        <v>-0.006694029849040849</v>
+      </c>
+      <c r="F42">
+        <v>0.03443030141488313</v>
+      </c>
+      <c r="G42">
+        <v>-0.01372541055154035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02471843483326175</v>
+        <v>-0.03390293836044162</v>
       </c>
       <c r="C43">
-        <v>-0.003341884488146003</v>
+        <v>0.0124978981332889</v>
       </c>
       <c r="D43">
-        <v>-0.003995437599668127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0069064681694658</v>
+      </c>
+      <c r="E43">
+        <v>0.03225153289089089</v>
+      </c>
+      <c r="F43">
+        <v>0.01043567095055344</v>
+      </c>
+      <c r="G43">
+        <v>0.1217241391335839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.008550274123898865</v>
+        <v>-0.01300565199972505</v>
       </c>
       <c r="C44">
-        <v>-0.02551840757524043</v>
+        <v>0.05179155565467403</v>
       </c>
       <c r="D44">
-        <v>-0.04614517740485885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008153862967040697</v>
+      </c>
+      <c r="E44">
+        <v>0.03757921600809025</v>
+      </c>
+      <c r="F44">
+        <v>0.01775770264126243</v>
+      </c>
+      <c r="G44">
+        <v>0.120848878046139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001984177440448328</v>
+        <v>-0.009041505643223235</v>
       </c>
       <c r="C46">
-        <v>0.008306071768969725</v>
+        <v>0.01397971935277831</v>
       </c>
       <c r="D46">
-        <v>-0.007315477539934129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01309497777787339</v>
+      </c>
+      <c r="E46">
+        <v>0.003122007136000784</v>
+      </c>
+      <c r="F46">
+        <v>0.01346227592451823</v>
+      </c>
+      <c r="G46">
+        <v>0.1090094669930984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04975650618791819</v>
+        <v>-0.08043435516468227</v>
       </c>
       <c r="C47">
-        <v>-0.04073919814512508</v>
+        <v>0.06860398588120539</v>
       </c>
       <c r="D47">
-        <v>-0.04571978524763289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004884804531795169</v>
+      </c>
+      <c r="E47">
+        <v>-0.006421896485020563</v>
+      </c>
+      <c r="F47">
+        <v>0.04316642789433607</v>
+      </c>
+      <c r="G47">
+        <v>0.0906637984418788</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00703501592204239</v>
+        <v>-0.01842563139439185</v>
       </c>
       <c r="C48">
-        <v>-0.002025852462835217</v>
+        <v>0.009726468109494575</v>
       </c>
       <c r="D48">
-        <v>-0.002847417425598437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002944318192812611</v>
+      </c>
+      <c r="E48">
+        <v>0.01187549023486711</v>
+      </c>
+      <c r="F48">
+        <v>0.01861007983723934</v>
+      </c>
+      <c r="G48">
+        <v>0.1056602927041414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05600775270201486</v>
+        <v>-0.07454647048865748</v>
       </c>
       <c r="C50">
-        <v>-0.0372500150993377</v>
+        <v>0.06766777425947983</v>
       </c>
       <c r="D50">
-        <v>-0.03990324706720842</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001793391075150863</v>
+      </c>
+      <c r="E50">
+        <v>-0.004016768405023218</v>
+      </c>
+      <c r="F50">
+        <v>0.04503103670528238</v>
+      </c>
+      <c r="G50">
+        <v>0.103714286414199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007862187243264126</v>
+        <v>-0.01160188199570216</v>
       </c>
       <c r="C51">
-        <v>-0.01230200347857849</v>
+        <v>0.03355942348913427</v>
       </c>
       <c r="D51">
-        <v>-0.03113202125263351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01194397359694246</v>
+      </c>
+      <c r="E51">
+        <v>0.03833898952570057</v>
+      </c>
+      <c r="F51">
+        <v>-0.01015174679206771</v>
+      </c>
+      <c r="G51">
+        <v>0.1174140592200306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07231280665880335</v>
+        <v>-0.08271386945233222</v>
       </c>
       <c r="C53">
-        <v>-0.0550542999706724</v>
+        <v>0.08182592472824783</v>
       </c>
       <c r="D53">
-        <v>-0.06411818134940195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004002491670065081</v>
+      </c>
+      <c r="E53">
+        <v>-0.02818781421234886</v>
+      </c>
+      <c r="F53">
+        <v>0.04861354729964412</v>
+      </c>
+      <c r="G53">
+        <v>0.09652300381976439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02316975908911173</v>
+        <v>-0.03185372192327003</v>
       </c>
       <c r="C54">
-        <v>-0.004844646794623186</v>
+        <v>0.0141418748712659</v>
       </c>
       <c r="D54">
-        <v>0.005295710412728671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0003604428408998239</v>
+      </c>
+      <c r="E54">
+        <v>0.02421633067096642</v>
+      </c>
+      <c r="F54">
+        <v>0.009868721496115678</v>
+      </c>
+      <c r="G54">
+        <v>0.1090559005570235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.05227365904715943</v>
+        <v>-0.07587809949982545</v>
       </c>
       <c r="C55">
-        <v>-0.04451650938485225</v>
+        <v>0.06703525774836096</v>
       </c>
       <c r="D55">
-        <v>-0.05174342912567714</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005549980793432257</v>
+      </c>
+      <c r="E55">
+        <v>-0.02864375122085109</v>
+      </c>
+      <c r="F55">
+        <v>0.0474239518331687</v>
+      </c>
+      <c r="G55">
+        <v>0.07291125981385385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1141479901807495</v>
+        <v>-0.1376383205599302</v>
       </c>
       <c r="C56">
-        <v>-0.08291345676761937</v>
+        <v>0.1033493060184651</v>
       </c>
       <c r="D56">
-        <v>-0.08491255922364122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01304711878861174</v>
+      </c>
+      <c r="E56">
+        <v>-0.03518142388615815</v>
+      </c>
+      <c r="F56">
+        <v>0.05748422297642659</v>
+      </c>
+      <c r="G56">
+        <v>0.05949741590597783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01057967962798506</v>
+        <v>-0.003854932032576915</v>
       </c>
       <c r="C57">
-        <v>0.01156147997757254</v>
+        <v>0.003681879648648775</v>
       </c>
       <c r="D57">
-        <v>-0.02016913232384775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0229303763457237</v>
+      </c>
+      <c r="E57">
+        <v>0.02452473723927618</v>
+      </c>
+      <c r="F57">
+        <v>0.0001159535429062135</v>
+      </c>
+      <c r="G57">
+        <v>0.01445586482068132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0406896321610043</v>
+        <v>-0.0401702764478396</v>
       </c>
       <c r="C58">
-        <v>-0.04944785984503906</v>
+        <v>0.02815117551616483</v>
       </c>
       <c r="D58">
-        <v>-0.06645686087632825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03424886205565594</v>
+      </c>
+      <c r="E58">
+        <v>0.7695832685203298</v>
+      </c>
+      <c r="F58">
+        <v>0.5370383416987559</v>
+      </c>
+      <c r="G58">
+        <v>-0.2773062190205012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1934104282013849</v>
+        <v>-0.1552842730389251</v>
       </c>
       <c r="C59">
-        <v>0.06761650380223246</v>
+        <v>-0.2109845053765926</v>
       </c>
       <c r="D59">
-        <v>0.1841474742234694</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01084340853840721</v>
+      </c>
+      <c r="E59">
+        <v>0.0222701336615072</v>
+      </c>
+      <c r="F59">
+        <v>0.005039714711931515</v>
+      </c>
+      <c r="G59">
+        <v>0.03429564706525939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3036338379335793</v>
+        <v>-0.2881191851631524</v>
       </c>
       <c r="C60">
-        <v>-0.1146041522932354</v>
+        <v>0.107081452971586</v>
       </c>
       <c r="D60">
-        <v>-0.1186165444981444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01601068859447698</v>
+      </c>
+      <c r="E60">
+        <v>0.1048082045931616</v>
+      </c>
+      <c r="F60">
+        <v>-0.3100137665820724</v>
+      </c>
+      <c r="G60">
+        <v>-0.1809115836137685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01951302417103188</v>
+        <v>-0.0396883095093057</v>
       </c>
       <c r="C61">
-        <v>-0.03519234424494423</v>
+        <v>0.06285627053121175</v>
       </c>
       <c r="D61">
-        <v>-0.05793322310183367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006687293174977451</v>
+      </c>
+      <c r="E61">
+        <v>0.03454044358138885</v>
+      </c>
+      <c r="F61">
+        <v>-0.008922927268374094</v>
+      </c>
+      <c r="G61">
+        <v>0.09079172173723844</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007744749718376983</v>
+        <v>-0.01483669991625335</v>
       </c>
       <c r="C63">
-        <v>-0.01033534980957885</v>
+        <v>0.02747147892367335</v>
       </c>
       <c r="D63">
-        <v>-0.02926870415171234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009056494196380716</v>
+      </c>
+      <c r="E63">
+        <v>0.0100100070201071</v>
+      </c>
+      <c r="F63">
+        <v>0.0139905290770894</v>
+      </c>
+      <c r="G63">
+        <v>0.0944235767514188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03977447579210783</v>
+        <v>-0.05059536567823249</v>
       </c>
       <c r="C64">
-        <v>-0.02226106719802728</v>
+        <v>0.04545207962220867</v>
       </c>
       <c r="D64">
-        <v>-0.03350503209060402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006096346519543055</v>
+      </c>
+      <c r="E64">
+        <v>0.00799137678285966</v>
+      </c>
+      <c r="F64">
+        <v>-0.008342770892771616</v>
+      </c>
+      <c r="G64">
+        <v>0.09346924723052653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07160071953112267</v>
+        <v>-0.07124310774437975</v>
       </c>
       <c r="C65">
-        <v>-0.04402431550573679</v>
+        <v>0.05431483537323482</v>
       </c>
       <c r="D65">
-        <v>-0.07948391237077765</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01831556776616697</v>
+      </c>
+      <c r="E65">
+        <v>0.05785659019162442</v>
+      </c>
+      <c r="F65">
+        <v>-0.01067909852691712</v>
+      </c>
+      <c r="G65">
+        <v>0.04225171932312243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.02930370290330666</v>
+        <v>-0.04849673308445328</v>
       </c>
       <c r="C66">
-        <v>-0.06732258654230555</v>
+        <v>0.102111526052122</v>
       </c>
       <c r="D66">
-        <v>-0.119080331441293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0137620240690524</v>
+      </c>
+      <c r="E66">
+        <v>0.06027746397051818</v>
+      </c>
+      <c r="F66">
+        <v>-0.02342933391507933</v>
+      </c>
+      <c r="G66">
+        <v>0.09925053699500155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05106920170547954</v>
+        <v>-0.0550363025522823</v>
       </c>
       <c r="C67">
-        <v>-0.02914894693867673</v>
+        <v>0.02926693203291552</v>
       </c>
       <c r="D67">
-        <v>-0.02202826524219788</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005720625610624918</v>
+      </c>
+      <c r="E67">
+        <v>0.002355148171444344</v>
+      </c>
+      <c r="F67">
+        <v>0.01013104479972225</v>
+      </c>
+      <c r="G67">
+        <v>0.07798574959023197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1819783567690043</v>
+        <v>-0.1544682487785723</v>
       </c>
       <c r="C68">
-        <v>0.1093980426696478</v>
+        <v>-0.2723526893157164</v>
       </c>
       <c r="D68">
-        <v>0.2125595558348154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004570641328444128</v>
+      </c>
+      <c r="E68">
+        <v>-0.008631460658528177</v>
+      </c>
+      <c r="F68">
+        <v>0.04559453153501064</v>
+      </c>
+      <c r="G68">
+        <v>0.01575855071928129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0560329114158232</v>
+        <v>-0.08321665060482768</v>
       </c>
       <c r="C69">
-        <v>-0.04308002375265314</v>
+        <v>0.07124499604411506</v>
       </c>
       <c r="D69">
-        <v>-0.03986663229966951</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008891551858608834</v>
+      </c>
+      <c r="E69">
+        <v>-0.01770518664324219</v>
+      </c>
+      <c r="F69">
+        <v>0.02306902309686158</v>
+      </c>
+      <c r="G69">
+        <v>0.1022661930412597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1673999118173261</v>
+        <v>-0.1412040685881435</v>
       </c>
       <c r="C71">
-        <v>0.08050440485924412</v>
+        <v>-0.2335108366969404</v>
       </c>
       <c r="D71">
-        <v>0.1798641745085499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003204691397394824</v>
+      </c>
+      <c r="E71">
+        <v>0.02548435967402867</v>
+      </c>
+      <c r="F71">
+        <v>0.02833448875056734</v>
+      </c>
+      <c r="G71">
+        <v>0.06043624950626668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06360169308159609</v>
+        <v>-0.08732473063366232</v>
       </c>
       <c r="C72">
-        <v>-0.05725935037385527</v>
+        <v>0.06515444075017773</v>
       </c>
       <c r="D72">
-        <v>-0.05816468395860142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007584865673563798</v>
+      </c>
+      <c r="E72">
+        <v>0.006741055095111516</v>
+      </c>
+      <c r="F72">
+        <v>-0.03001556860401787</v>
+      </c>
+      <c r="G72">
+        <v>0.08652905594656723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4267104021214844</v>
+        <v>-0.3707148626232048</v>
       </c>
       <c r="C73">
-        <v>-0.1695339735365921</v>
+        <v>0.1122205382698003</v>
       </c>
       <c r="D73">
-        <v>-0.1827698264615716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02965475175959002</v>
+      </c>
+      <c r="E73">
+        <v>0.2445313686575945</v>
+      </c>
+      <c r="F73">
+        <v>-0.532589134432305</v>
+      </c>
+      <c r="G73">
+        <v>-0.3246523960960654</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08813980479954013</v>
+        <v>-0.1054880970987577</v>
       </c>
       <c r="C74">
-        <v>-0.08418670819918996</v>
+        <v>0.1054998084294139</v>
       </c>
       <c r="D74">
-        <v>-0.09698325113105266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009337327346205147</v>
+      </c>
+      <c r="E74">
+        <v>-0.007581871507192707</v>
+      </c>
+      <c r="F74">
+        <v>0.05506439702182216</v>
+      </c>
+      <c r="G74">
+        <v>0.07914319607206638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2056964245676706</v>
+        <v>-0.2488153600199521</v>
       </c>
       <c r="C75">
-        <v>-0.1385193020671044</v>
+        <v>0.1471404145137303</v>
       </c>
       <c r="D75">
-        <v>-0.132240156290529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03223549834165689</v>
+      </c>
+      <c r="E75">
+        <v>-0.09543791038830181</v>
+      </c>
+      <c r="F75">
+        <v>0.1339281047802622</v>
+      </c>
+      <c r="G75">
+        <v>0.01959902760815009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1036306748161979</v>
+        <v>-0.1166415769534414</v>
       </c>
       <c r="C76">
-        <v>-0.09362331312360675</v>
+        <v>0.1061089991184044</v>
       </c>
       <c r="D76">
-        <v>-0.09454605243024046</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01794639715986438</v>
+      </c>
+      <c r="E76">
+        <v>-0.03772254801638268</v>
+      </c>
+      <c r="F76">
+        <v>0.07943270446802628</v>
+      </c>
+      <c r="G76">
+        <v>0.07337135535813843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04320322666084587</v>
+        <v>-0.06873694242398046</v>
       </c>
       <c r="C77">
-        <v>-0.03501615775824524</v>
+        <v>0.04882708435012946</v>
       </c>
       <c r="D77">
-        <v>-0.06006134138967716</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01180061672298854</v>
+      </c>
+      <c r="E77">
+        <v>0.0651664246624109</v>
+      </c>
+      <c r="F77">
+        <v>0.001684302698960493</v>
+      </c>
+      <c r="G77">
+        <v>0.0793927829780974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.03381099460234184</v>
+        <v>-0.03921117782600662</v>
       </c>
       <c r="C78">
-        <v>-0.03177257725601362</v>
+        <v>0.05027348428784104</v>
       </c>
       <c r="D78">
-        <v>-0.04895050891708433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.008361198277667363</v>
+      </c>
+      <c r="E78">
+        <v>0.04893655225952236</v>
+      </c>
+      <c r="F78">
+        <v>-0.02775189342109117</v>
+      </c>
+      <c r="G78">
+        <v>0.09416255532900961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.002300287779956172</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.001351076158911791</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0008450299579007961</v>
+      </c>
+      <c r="E79">
+        <v>0.008186839042126352</v>
+      </c>
+      <c r="F79">
+        <v>-1.312442745001666e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.007292268717867982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04117831899993633</v>
+        <v>-0.04063991209061914</v>
       </c>
       <c r="C80">
-        <v>-0.03293565124520383</v>
+        <v>0.04726363280688521</v>
       </c>
       <c r="D80">
-        <v>-0.06382782821648669</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01479854522631692</v>
+      </c>
+      <c r="E80">
+        <v>0.03903418216100934</v>
+      </c>
+      <c r="F80">
+        <v>0.001775137316117393</v>
+      </c>
+      <c r="G80">
+        <v>0.05888486055891131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1105106593047025</v>
+        <v>-0.1387074600131267</v>
       </c>
       <c r="C81">
-        <v>-0.073559616865453</v>
+        <v>0.09050253618977816</v>
       </c>
       <c r="D81">
-        <v>-0.06995311547622185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01570180981721138</v>
+      </c>
+      <c r="E81">
+        <v>-0.05758467542003696</v>
+      </c>
+      <c r="F81">
+        <v>0.1046451165768576</v>
+      </c>
+      <c r="G81">
+        <v>0.03978070881742743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.03207117470261916</v>
+        <v>-0.1613604776993804</v>
       </c>
       <c r="C82">
-        <v>-0.02080024804899701</v>
+        <v>0.1107498379016906</v>
       </c>
       <c r="D82">
-        <v>-0.02290583373213022</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01617106630828528</v>
+      </c>
+      <c r="E82">
+        <v>-0.1585949631301272</v>
+      </c>
+      <c r="F82">
+        <v>0.04776377332874533</v>
+      </c>
+      <c r="G82">
+        <v>0.02012250548862421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01954343066232078</v>
+        <v>-0.03337072201070419</v>
       </c>
       <c r="C83">
-        <v>-0.009750871312640762</v>
+        <v>0.02968242579830966</v>
       </c>
       <c r="D83">
-        <v>-0.01831667978122778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007639616930472611</v>
+      </c>
+      <c r="E83">
+        <v>0.04064840920680076</v>
+      </c>
+      <c r="F83">
+        <v>-0.02978391283156147</v>
+      </c>
+      <c r="G83">
+        <v>0.05385218799433665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2002483833197959</v>
+        <v>-0.2102096207108267</v>
       </c>
       <c r="C85">
-        <v>-0.137392784391183</v>
+        <v>0.1413706978567528</v>
       </c>
       <c r="D85">
-        <v>-0.1544574226539694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01771823305689753</v>
+      </c>
+      <c r="E85">
+        <v>-0.1053879848440082</v>
+      </c>
+      <c r="F85">
+        <v>0.06863269814242826</v>
+      </c>
+      <c r="G85">
+        <v>-0.0139006146676826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006867430027584926</v>
+        <v>-0.01159763521591659</v>
       </c>
       <c r="C86">
-        <v>-0.00946860589570636</v>
+        <v>0.02391521366521323</v>
       </c>
       <c r="D86">
-        <v>-0.02513996008847012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01362413860149756</v>
+      </c>
+      <c r="E86">
+        <v>0.07216813244084803</v>
+      </c>
+      <c r="F86">
+        <v>-0.0211159641550745</v>
+      </c>
+      <c r="G86">
+        <v>0.1727694992732907</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.003441045802710961</v>
+        <v>-0.02047906338588607</v>
       </c>
       <c r="C87">
-        <v>-0.002871104246676245</v>
+        <v>0.01457305488266272</v>
       </c>
       <c r="D87">
-        <v>-0.01916551972317145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01380498508339115</v>
+      </c>
+      <c r="E87">
+        <v>0.100664851582223</v>
+      </c>
+      <c r="F87">
+        <v>0.02191078644454714</v>
+      </c>
+      <c r="G87">
+        <v>0.1088514645016728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.07204068683625611</v>
+        <v>-0.09082834081625199</v>
       </c>
       <c r="C88">
-        <v>-0.01989231892979963</v>
+        <v>0.06618475990937898</v>
       </c>
       <c r="D88">
-        <v>-0.05560772292848629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02293388351513513</v>
+      </c>
+      <c r="E88">
+        <v>0.005223717195995966</v>
+      </c>
+      <c r="F88">
+        <v>0.01702882892744628</v>
+      </c>
+      <c r="G88">
+        <v>0.1100246971627332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.276395738820837</v>
+        <v>-0.2265564826151338</v>
       </c>
       <c r="C89">
-        <v>0.1470037850593978</v>
+        <v>-0.3705046841073321</v>
       </c>
       <c r="D89">
-        <v>0.3073795535596003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001826748309099733</v>
+      </c>
+      <c r="E89">
+        <v>-0.02776573209902903</v>
+      </c>
+      <c r="F89">
+        <v>0.01658363774090113</v>
+      </c>
+      <c r="G89">
+        <v>0.07691157237252759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2410311208267713</v>
+        <v>-0.2063279905861277</v>
       </c>
       <c r="C90">
-        <v>0.1287741528800843</v>
+        <v>-0.318423492779131</v>
       </c>
       <c r="D90">
-        <v>0.2771525262440254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005112514813039086</v>
+      </c>
+      <c r="E90">
+        <v>-0.01542293034097375</v>
+      </c>
+      <c r="F90">
+        <v>0.05050094529930566</v>
+      </c>
+      <c r="G90">
+        <v>0.04444654756013017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1629694116139204</v>
+        <v>-0.1863560545063585</v>
       </c>
       <c r="C91">
-        <v>-0.1006824319183652</v>
+        <v>0.1335935253559654</v>
       </c>
       <c r="D91">
-        <v>-0.08618079282460361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02307220078691212</v>
+      </c>
+      <c r="E91">
+        <v>-0.07770830449936622</v>
+      </c>
+      <c r="F91">
+        <v>0.1041869066721015</v>
+      </c>
+      <c r="G91">
+        <v>0.04821883573994699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2221969548899264</v>
+        <v>-0.1958924860638092</v>
       </c>
       <c r="C92">
-        <v>0.06319573458342991</v>
+        <v>-0.2603417771873565</v>
       </c>
       <c r="D92">
-        <v>0.2298628543073362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03876187615402376</v>
+      </c>
+      <c r="E92">
+        <v>0.01480719927170634</v>
+      </c>
+      <c r="F92">
+        <v>0.05757569745181017</v>
+      </c>
+      <c r="G92">
+        <v>0.08646332889370532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2595903755475843</v>
+        <v>-0.2292648461787847</v>
       </c>
       <c r="C93">
-        <v>0.1085859012706667</v>
+        <v>-0.3154025781318053</v>
       </c>
       <c r="D93">
-        <v>0.2604115218464531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.010767685707788</v>
+      </c>
+      <c r="E93">
+        <v>0.001061618016147991</v>
+      </c>
+      <c r="F93">
+        <v>0.03790424484353434</v>
+      </c>
+      <c r="G93">
+        <v>0.06041281859542892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2136568976209726</v>
+        <v>-0.3310420447374149</v>
       </c>
       <c r="C94">
-        <v>-0.1149521955308571</v>
+        <v>0.2061790408629611</v>
       </c>
       <c r="D94">
-        <v>-0.1314974927273873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02740793553129488</v>
+      </c>
+      <c r="E94">
+        <v>-0.3692021801224617</v>
+      </c>
+      <c r="F94">
+        <v>0.4159578229886078</v>
+      </c>
+      <c r="G94">
+        <v>-0.3723938034818087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.06108104752578009</v>
+        <v>-0.09233821558494075</v>
       </c>
       <c r="C95">
-        <v>-0.08165060595983703</v>
+        <v>0.07367577270427556</v>
       </c>
       <c r="D95">
-        <v>-0.104040269137106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.007894228917302413</v>
+      </c>
+      <c r="E95">
+        <v>0.1177926081228883</v>
+      </c>
+      <c r="F95">
+        <v>-0.1564755354682577</v>
+      </c>
+      <c r="G95">
+        <v>0.05877110617188513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2048408946308513</v>
+        <v>-0.1924420054504522</v>
       </c>
       <c r="C98">
-        <v>-0.08887788628561952</v>
+        <v>0.04894395043533235</v>
       </c>
       <c r="D98">
-        <v>-0.05207600611149117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009718468674595311</v>
+      </c>
+      <c r="E98">
+        <v>0.1281408282481203</v>
+      </c>
+      <c r="F98">
+        <v>-0.201874536152706</v>
+      </c>
+      <c r="G98">
+        <v>-0.06397602751407989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006841009869969211</v>
+        <v>-0.007840126535186358</v>
       </c>
       <c r="C101">
-        <v>-0.004782309261349356</v>
+        <v>0.02088557992567713</v>
       </c>
       <c r="D101">
-        <v>-0.01923179436069042</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01000397662587163</v>
+      </c>
+      <c r="E101">
+        <v>0.01129628678490952</v>
+      </c>
+      <c r="F101">
+        <v>0.01079220117931288</v>
+      </c>
+      <c r="G101">
+        <v>0.1052808247254023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1026905009888537</v>
+        <v>-0.1206392563635625</v>
       </c>
       <c r="C102">
-        <v>-0.05867588687464036</v>
+        <v>0.08831034541822255</v>
       </c>
       <c r="D102">
-        <v>-0.07601095824017595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>4.427948031365106e-05</v>
+      </c>
+      <c r="E102">
+        <v>-0.04321950409380098</v>
+      </c>
+      <c r="F102">
+        <v>0.01775600082866826</v>
+      </c>
+      <c r="G102">
+        <v>0.01730278434958521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1566922182508982</v>
+        <v>-0.02075872431957124</v>
       </c>
       <c r="C104">
-        <v>0.8465413862854562</v>
+        <v>-0.02873120642697803</v>
       </c>
       <c r="D104">
-        <v>-0.4914044396170236</v>
+        <v>0.9864702976051352</v>
+      </c>
+      <c r="E104">
+        <v>-0.08194083808278588</v>
+      </c>
+      <c r="F104">
+        <v>0.02331899633530357</v>
+      </c>
+      <c r="G104">
+        <v>-0.0370535435312571</v>
       </c>
     </row>
   </sheetData>
